--- a/TOR330 Data/TOR330 - Timetable.xlsx
+++ b/TOR330 Data/TOR330 - Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karina\Portfolio\Tor_Des_Geants\TOR330 Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8532455-E616-4FF5-B208-B0263DC4EE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887376AB-A46D-44E4-BDEC-4B97EBDD4BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="4215" windowWidth="21615" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOR330 Timetable 2023" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="376">
   <si>
     <r>
       <rPr>
@@ -1466,7 +1466,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1617,19 +1617,6 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1735,7 +1722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1942,9 +1929,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1957,39 +1941,38 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2214,8 +2197,8 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74:H74"/>
+      <pane ySplit="8" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2227,23 +2210,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="6" customHeight="1">
-      <c r="A1" s="82"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1">
       <c r="A2" s="1"/>
@@ -2310,135 +2293,135 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="6" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
     </row>
     <row r="5" spans="1:17" ht="84.75" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
     </row>
     <row r="6" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="86" t="s">
+      <c r="I6" s="85"/>
+      <c r="J6" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="87" t="s">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
     </row>
     <row r="7" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="86" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="87" t="s">
+      <c r="M7" s="75"/>
+      <c r="N7" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="87" t="s">
+      <c r="P7" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="77"/>
+      <c r="Q7" s="75"/>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
       <c r="P8" s="14" t="s">
         <v>32</v>
       </c>
@@ -5716,25 +5699,25 @@
       <c r="O89" s="68"/>
     </row>
     <row r="90" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A90" s="81" t="s">
+      <c r="A90" s="74" t="s">
         <v>334</v>
       </c>
-      <c r="B90" s="77"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="77"/>
-      <c r="L90" s="77"/>
-      <c r="M90" s="77"/>
-      <c r="N90" s="77"/>
-      <c r="O90" s="77"/>
-      <c r="P90" s="77"/>
-      <c r="Q90" s="77"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="75"/>
+      <c r="O90" s="75"/>
+      <c r="P90" s="75"/>
+      <c r="Q90" s="75"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" customHeight="1">
       <c r="A91" s="68"/>
@@ -5823,6 +5806,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="A90:Q90"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A4:Q4"/>
@@ -5839,11 +5827,6 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.19685039370078738" bottom="0.19685039370078738" header="0" footer="0"/>
@@ -5856,41 +5839,40 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="1" max="2" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63.75">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="13" t="s">
@@ -5904,7 +5886,7 @@
       <c r="A2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>372</v>
       </c>
       <c r="C2" s="16">
@@ -5928,11 +5910,15 @@
       <c r="I2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="22"/>
+      <c r="J2" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -5964,7 +5950,7 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="37" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -6001,7 +5987,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -6034,7 +6020,7 @@
       <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -6067,7 +6053,7 @@
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -6100,7 +6086,7 @@
       <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="47" t="s">
         <v>335</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -6137,7 +6123,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="47" t="s">
         <v>336</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -6174,7 +6160,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="30" t="s">
         <v>337</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -6207,7 +6193,7 @@
       <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="30" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -6240,7 +6226,7 @@
       <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="37" t="s">
         <v>338</v>
       </c>
       <c r="B12" s="37" t="s">
@@ -6277,7 +6263,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="30" t="s">
         <v>339</v>
       </c>
       <c r="B13" s="30" t="s">
@@ -6310,7 +6296,7 @@
       <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="47" t="s">
         <v>340</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -6347,7 +6333,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="47" t="s">
         <v>341</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -6384,7 +6370,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="30" t="s">
         <v>342</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -6417,7 +6403,7 @@
       <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="30" t="s">
         <v>124</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -6450,7 +6436,7 @@
       <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="30" t="s">
         <v>343</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -6483,7 +6469,7 @@
       <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="30" t="s">
         <v>134</v>
       </c>
       <c r="B19" s="30" t="s">
@@ -6516,7 +6502,7 @@
       <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="47" t="s">
         <v>344</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -6553,7 +6539,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="24" customHeight="1">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="47" t="s">
         <v>345</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -6590,7 +6576,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="30" t="s">
         <v>148</v>
       </c>
       <c r="B22" s="30" t="s">
@@ -6623,7 +6609,7 @@
       <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="30" t="s">
         <v>346</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -6656,7 +6642,7 @@
       <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="30" t="s">
         <v>347</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -6693,7 +6679,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="37" t="s">
         <v>348</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -6730,7 +6716,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B26" s="30" t="s">
@@ -6763,7 +6749,7 @@
       <c r="K26" s="44"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="30" t="s">
         <v>349</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -6796,7 +6782,7 @@
       <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="37" t="s">
         <v>350</v>
       </c>
       <c r="B28" s="37" t="s">
@@ -6833,7 +6819,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="30" t="s">
         <v>351</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -6866,7 +6852,7 @@
       <c r="K29" s="44"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="47" t="s">
         <v>352</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -6903,7 +6889,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="47" t="s">
         <v>353</v>
       </c>
       <c r="B31" s="47" t="s">
@@ -6936,7 +6922,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="30" t="s">
         <v>354</v>
       </c>
       <c r="B32" s="30" t="s">
@@ -6969,7 +6955,7 @@
       <c r="K32" s="44"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="37" t="s">
         <v>210</v>
       </c>
       <c r="B33" s="37" t="s">
@@ -7006,7 +6992,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="30" t="s">
         <v>218</v>
       </c>
       <c r="B34" s="30" t="s">
@@ -7039,7 +7025,7 @@
       <c r="K34" s="44"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="47" t="s">
         <v>355</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -7076,7 +7062,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="47" t="s">
         <v>356</v>
       </c>
       <c r="B36" s="47" t="s">
@@ -7113,7 +7099,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="30" t="s">
         <v>357</v>
       </c>
       <c r="B37" s="30" t="s">
@@ -7144,7 +7130,7 @@
       <c r="K37" s="44"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="30" t="s">
         <v>358</v>
       </c>
       <c r="B38" s="30" t="s">
@@ -7175,7 +7161,7 @@
       <c r="K38" s="44"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="30" t="s">
         <v>359</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -7206,7 +7192,7 @@
       <c r="K39" s="44"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="30" t="s">
         <v>360</v>
       </c>
       <c r="B40" s="30" t="s">
@@ -7237,7 +7223,7 @@
       <c r="K40" s="44"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="30" t="s">
         <v>361</v>
       </c>
       <c r="B41" s="30" t="s">
@@ -7268,7 +7254,7 @@
       <c r="K41" s="44"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="37" t="s">
         <v>362</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -7303,7 +7289,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="30" t="s">
         <v>270</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -7334,7 +7320,7 @@
       <c r="K43" s="44"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="30" t="s">
         <v>275</v>
       </c>
       <c r="B44" s="30" t="s">
@@ -7365,7 +7351,7 @@
       <c r="K44" s="44"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="30" t="s">
         <v>363</v>
       </c>
       <c r="B45" s="30" t="s">
@@ -7396,7 +7382,7 @@
       <c r="K45" s="44"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="47" t="s">
         <v>364</v>
       </c>
       <c r="B46" s="47" t="s">
@@ -7431,7 +7417,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="47" t="s">
         <v>365</v>
       </c>
       <c r="B47" s="47" t="s">
@@ -7466,7 +7452,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="30" t="s">
         <v>366</v>
       </c>
       <c r="B48" s="30" t="s">
@@ -7497,7 +7483,7 @@
       <c r="K48" s="44"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="30" t="s">
         <v>367</v>
       </c>
       <c r="B49" s="30" t="s">
@@ -7528,7 +7514,7 @@
       <c r="K49" s="44"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="30" t="s">
         <v>302</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -7559,7 +7545,7 @@
       <c r="K50" s="44"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="30" t="s">
         <v>368</v>
       </c>
       <c r="B51" s="30" t="s">
@@ -7590,7 +7576,7 @@
       <c r="K51" s="44"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="30" t="s">
         <v>369</v>
       </c>
       <c r="B52" s="30" t="s">
@@ -7621,7 +7607,7 @@
       <c r="K52" s="44"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="30" t="s">
         <v>370</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -7652,7 +7638,7 @@
       <c r="K53" s="44"/>
     </row>
     <row r="54" spans="1:11" ht="31.5">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="56" t="s">
         <v>371</v>
       </c>
       <c r="B54" s="56" t="s">
